--- a/biology/Botanique/Noël_Martin_Joseph_de_Necker/Noël_Martin_Joseph_de_Necker.xlsx
+++ b/biology/Botanique/Noël_Martin_Joseph_de_Necker/Noël_Martin_Joseph_de_Necker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Martin_Joseph_de_Necker</t>
+          <t>Noël_Martin_Joseph_de_Necker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noël Martin Joseph de Necker (ou Natalis-Josephus de Necker) est un médecin et un botaniste d'origine française, né le 25 décembre 1730 à Lille (royaume de France) et mort le 30 décembre 1793 à Mannheim. Il est le médecin du prince électeur du Palatinat à Mannheim nouvelle capitale du Palatinat. Il se consacre particulièrement à l’étude des mousses. Le genre Neckera de la famille Neckeraceae lui a été dédié.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Martin_Joseph_de_Necker</t>
+          <t>Noël_Martin_Joseph_de_Necker</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deliciae gallobelgicae silvestres, seu Tractatus generalis plantarum gallo-belgicarum (deux volumes, 1768).
 Methodus Muscorum per Clases, Ordines, Genera (Juniperus dilatata &amp; Juniperus sabina var. tamariscifolia) (Mannheim, 1771).
